--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G858"/>
+  <dimension ref="A1:G848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20198,10 +20198,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -20235,10 +20233,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -20268,10 +20264,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -20301,10 +20295,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -20338,10 +20330,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -20375,10 +20365,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -20408,10 +20396,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -20445,10 +20431,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -20482,10 +20466,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -20511,10 +20493,8 @@
       </c>
       <c r="E762" t="inlineStr"/>
       <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -20548,10 +20528,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -20581,10 +20559,8 @@
         </is>
       </c>
       <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -20610,10 +20586,8 @@
       </c>
       <c r="E765" t="inlineStr"/>
       <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -20639,10 +20613,8 @@
       </c>
       <c r="E766" t="inlineStr"/>
       <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -20668,10 +20640,8 @@
       </c>
       <c r="E767" t="inlineStr"/>
       <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -20697,10 +20667,8 @@
       </c>
       <c r="E768" t="inlineStr"/>
       <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -20718,10 +20686,8 @@
       <c r="D769" t="inlineStr"/>
       <c r="E769" t="inlineStr"/>
       <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -20747,10 +20713,8 @@
       </c>
       <c r="E770" t="inlineStr"/>
       <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -20768,118 +20732,96 @@
       <c r="D771" t="inlineStr"/>
       <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment RateFEB</t>
+        </is>
+      </c>
       <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr"/>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr"/>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
-      <c r="F773" t="inlineStr">
-        <is>
-          <t>150.0K</t>
-        </is>
-      </c>
+      <c r="D773" t="inlineStr"/>
+      <c r="E773" t="inlineStr"/>
+      <c r="F773" t="inlineStr"/>
       <c r="G773" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F774" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="D774" t="inlineStr"/>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr"/>
       <c r="G774" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:20 PM</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E775" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F775" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D775" t="inlineStr"/>
+      <c r="E775" t="inlineStr"/>
+      <c r="F775" t="inlineStr"/>
       <c r="G775" t="inlineStr">
         <is>
           <t>2</t>
@@ -20889,59 +20831,39 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="D776" t="inlineStr"/>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D777" t="inlineStr"/>
       <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr">
         <is>
           <t>2</t>
@@ -20951,30 +20873,22 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
       <c r="D778" t="inlineStr">
         <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr">
         <is>
           <t>3</t>
@@ -20984,26 +20898,22 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr">
         <is>
-          <t>32K</t>
+          <t>593</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr">
         <is>
           <t>3</t>
@@ -21013,28 +20923,28 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
-          <t>3K</t>
+          <t>$40.85B</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$14.5B</t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>6.0K</t>
+          <t>$ -3.0B</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -21044,32 +20954,20 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A781" t="inlineStr"/>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>Used Car Prices MoMFEB</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr">
         <is>
           <t>3</t>
@@ -21077,28 +20975,20 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A782" t="inlineStr"/>
       <c r="B782" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Used Car Prices YoYFEB</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
+      <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr">
         <is>
           <t>3</t>
@@ -21108,123 +20998,111 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
+          <t>Saturday March 08 2025</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr"/>
       <c r="C783" t="inlineStr"/>
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>10:45 AM</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
+          <t>Sunday March 09 2025</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr"/>
       <c r="C784" t="inlineStr"/>
       <c r="D784" t="inlineStr"/>
       <c r="E784" t="inlineStr"/>
       <c r="F784" t="inlineStr"/>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>12:20 PM</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Monday March 10 2025</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr"/>
       <c r="C785" t="inlineStr"/>
       <c r="D785" t="inlineStr"/>
       <c r="E785" t="inlineStr"/>
       <c r="F785" t="inlineStr"/>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Consumer Inflation ExpectationsFEB</t>
         </is>
       </c>
       <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr"/>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr"/>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>4.210%</t>
+        </is>
+      </c>
       <c r="E787" t="inlineStr"/>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C788" t="inlineStr"/>
       <c r="D788" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>4.135%</t>
         </is>
       </c>
       <c r="E788" t="inlineStr"/>
@@ -21238,53 +21116,37 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
+          <t>Tuesday March 11 2025</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr"/>
       <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
+      <c r="D789" t="inlineStr"/>
       <c r="E789" t="inlineStr"/>
       <c r="F789" t="inlineStr"/>
-      <c r="G789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeJAN</t>
+          <t>NFIB Business Optimism IndexFEB</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
       <c r="D790" t="inlineStr">
         <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
+          <t>102.8</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr"/>
       <c r="F790" t="inlineStr">
         <is>
-          <t>$ -3.0B</t>
+          <t>102</t>
         </is>
       </c>
       <c r="G790" t="inlineStr">
@@ -21294,16 +21156,20 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" t="inlineStr"/>
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMFEB</t>
+          <t>Redbook YoYMAR/08</t>
         </is>
       </c>
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -21315,180 +21181,216 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" t="inlineStr"/>
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYFEB</t>
+          <t>JOLTs Job OpeningsJAN</t>
         </is>
       </c>
       <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>7.6M</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>7.5M</t>
+        </is>
+      </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsJAN</t>
+        </is>
+      </c>
       <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr"/>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>3.197M</t>
+        </is>
+      </c>
       <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr"/>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>3.21M</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
       <c r="C794" t="inlineStr"/>
       <c r="D794" t="inlineStr"/>
       <c r="E794" t="inlineStr"/>
       <c r="F794" t="inlineStr"/>
-      <c r="G794" t="inlineStr"/>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>4.300%</t>
+        </is>
+      </c>
       <c r="E795" t="inlineStr"/>
       <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr"/>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
+          <t>API Crude Oil Stock ChangeMAR/07</t>
         </is>
       </c>
       <c r="C796" t="inlineStr"/>
       <c r="D796" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-1.455M</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F796" t="inlineStr"/>
       <c r="G796" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday March 12 2025</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr"/>
       <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
+      <c r="D797" t="inlineStr"/>
       <c r="E797" t="inlineStr"/>
       <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>MBA 30-Year Mortgage RateMAR/07</t>
         </is>
       </c>
       <c r="C798" t="inlineStr"/>
       <c r="D798" t="inlineStr">
         <is>
-          <t>4.135%</t>
+          <t>6.73%</t>
         </is>
       </c>
       <c r="E798" t="inlineStr"/>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsMAR/07</t>
+        </is>
+      </c>
       <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>20.4%</t>
+        </is>
+      </c>
       <c r="E799" t="inlineStr"/>
       <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr"/>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexFEB</t>
+          <t>MBA Mortgage Market IndexMAR/07</t>
         </is>
       </c>
       <c r="C800" t="inlineStr"/>
       <c r="D800" t="inlineStr">
         <is>
-          <t>102.8</t>
+          <t>242.2</t>
         </is>
       </c>
       <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
+      <c r="F800" t="inlineStr"/>
       <c r="G800" t="inlineStr">
         <is>
           <t>3</t>
@@ -21498,18 +21400,18 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/08</t>
+          <t>MBA Mortgage Refinance IndexMAR/07</t>
         </is>
       </c>
       <c r="C801" t="inlineStr"/>
       <c r="D801" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>784.2</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
@@ -21523,164 +21425,196 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsJAN</t>
+          <t>MBA Purchase IndexMAR/07</t>
         </is>
       </c>
       <c r="C802" t="inlineStr"/>
       <c r="D802" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>144.5</t>
         </is>
       </c>
       <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
+      <c r="F802" t="inlineStr"/>
       <c r="G802" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsJAN</t>
+          <t>Core Inflation Rate MoMFEB</t>
         </is>
       </c>
       <c r="C803" t="inlineStr"/>
       <c r="D803" t="inlineStr">
         <is>
-          <t>3.197M</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
       <c r="F803" t="inlineStr">
         <is>
-          <t>3.21M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Core Inflation Rate YoYFEB</t>
         </is>
       </c>
       <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G804" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Inflation Rate MoMFEB</t>
         </is>
       </c>
       <c r="C805" t="inlineStr"/>
       <c r="D805" t="inlineStr">
         <is>
-          <t>4.300%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr"/>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G805" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
+          <t>Inflation Rate YoYFEB</t>
         </is>
       </c>
       <c r="C806" t="inlineStr"/>
       <c r="D806" t="inlineStr">
         <is>
-          <t>-1.455M</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G806" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>CPIFEB</t>
+        </is>
+      </c>
       <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>317.67</t>
+        </is>
+      </c>
       <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr"/>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>319.3</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
+          <t>CPI s.aFEB</t>
         </is>
       </c>
       <c r="C808" t="inlineStr"/>
       <c r="D808" t="inlineStr">
         <is>
-          <t>6.73%</t>
+          <t>319.086</t>
         </is>
       </c>
       <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
       <c r="G808" t="inlineStr">
         <is>
           <t>2</t>
@@ -21690,68 +21624,68 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
+          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C809" t="inlineStr"/>
       <c r="D809" t="inlineStr">
         <is>
-          <t>20.4%</t>
+          <t>3.614M</t>
         </is>
       </c>
       <c r="E809" t="inlineStr"/>
       <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
+          <t>EIA Gasoline Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C810" t="inlineStr"/>
       <c r="D810" t="inlineStr">
         <is>
-          <t>242.2</t>
+          <t>-1.433M</t>
         </is>
       </c>
       <c r="E810" t="inlineStr"/>
       <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
+          <t>EIA Crude Oil Imports ChangeMAR/07</t>
         </is>
       </c>
       <c r="C811" t="inlineStr"/>
       <c r="D811" t="inlineStr">
         <is>
-          <t>784.2</t>
+          <t>-0.054M</t>
         </is>
       </c>
       <c r="E811" t="inlineStr"/>
@@ -21765,18 +21699,18 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAR/07</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C812" t="inlineStr"/>
       <c r="D812" t="inlineStr">
         <is>
-          <t>144.5</t>
+          <t>1.124M</t>
         </is>
       </c>
       <c r="E812" t="inlineStr"/>
@@ -21790,221 +21724,197 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMFEB</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
         </is>
       </c>
       <c r="C813" t="inlineStr"/>
       <c r="D813" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.587M</t>
         </is>
       </c>
       <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYFEB</t>
+          <t>EIA Distillate Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C814" t="inlineStr"/>
       <c r="D814" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-1.318M</t>
         </is>
       </c>
       <c r="E814" t="inlineStr"/>
-      <c r="F814" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMFEB</t>
+          <t>EIA Gasoline Production ChangeMAR/07</t>
         </is>
       </c>
       <c r="C815" t="inlineStr"/>
       <c r="D815" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.464M</t>
         </is>
       </c>
       <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYFEB</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C816" t="inlineStr"/>
       <c r="D816" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-0.067M</t>
         </is>
       </c>
       <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>CPIFEB</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
         </is>
       </c>
       <c r="C817" t="inlineStr"/>
       <c r="D817" t="inlineStr">
         <is>
-          <t>317.67</t>
+          <t>-0.346M</t>
         </is>
       </c>
       <c r="E817" t="inlineStr"/>
-      <c r="F817" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
+      <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>CPI s.aFEB</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
+      <c r="D818" t="inlineStr"/>
       <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
+      <c r="F818" t="inlineStr"/>
       <c r="G818" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C819" t="inlineStr"/>
       <c r="D819" t="inlineStr">
         <is>
-          <t>3.614M</t>
+          <t>4.632%</t>
         </is>
       </c>
       <c r="E819" t="inlineStr"/>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
+          <t>Monthly Budget StatementFEB</t>
         </is>
       </c>
       <c r="C820" t="inlineStr"/>
       <c r="D820" t="inlineStr">
         <is>
-          <t>-1.433M</t>
+          <t>$-129B</t>
         </is>
       </c>
       <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>$-90.0B</t>
+        </is>
+      </c>
       <c r="G820" t="inlineStr">
         <is>
           <t>2</t>
@@ -22014,120 +21924,112 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
+          <t>Thursday March 13 2025</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr"/>
       <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
+      <c r="D821" t="inlineStr"/>
       <c r="E821" t="inlineStr"/>
       <c r="F821" t="inlineStr"/>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
+          <t>PPI MoMFEB</t>
         </is>
       </c>
       <c r="C822" t="inlineStr"/>
       <c r="D822" t="inlineStr">
         <is>
-          <t>1.124M</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr"/>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G822" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
+          <t>Core PPI MoMFEB</t>
         </is>
       </c>
       <c r="C823" t="inlineStr"/>
       <c r="D823" t="inlineStr">
         <is>
-          <t>-0.587M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr"/>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G823" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
+          <t>Initial Jobless ClaimsMAR/08</t>
         </is>
       </c>
       <c r="C824" t="inlineStr"/>
       <c r="D824" t="inlineStr">
         <is>
-          <t>-1.318M</t>
+          <t>221K</t>
         </is>
       </c>
       <c r="E824" t="inlineStr"/>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
+          <t>Continuing Jobless ClaimsMAR/01</t>
         </is>
       </c>
       <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
+      <c r="D825" t="inlineStr"/>
       <c r="E825" t="inlineStr"/>
       <c r="F825" t="inlineStr"/>
       <c r="G825" t="inlineStr">
@@ -22139,22 +22041,26 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
+          <t>Core PPI YoYFEB</t>
         </is>
       </c>
       <c r="C826" t="inlineStr"/>
       <c r="D826" t="inlineStr">
         <is>
-          <t>-0.067M</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G826" t="inlineStr">
         <is>
           <t>3</t>
@@ -22164,20 +22070,16 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
+          <t>Jobless Claims 4-week AverageMAR/08</t>
         </is>
       </c>
       <c r="C827" t="inlineStr"/>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
+      <c r="D827" t="inlineStr"/>
       <c r="E827" t="inlineStr"/>
       <c r="F827" t="inlineStr"/>
       <c r="G827" t="inlineStr">
@@ -22189,18 +22091,26 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>PPIFEB</t>
         </is>
       </c>
       <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr"/>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>147.716</t>
+        </is>
+      </c>
       <c r="E828" t="inlineStr"/>
-      <c r="F828" t="inlineStr"/>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>148.1</t>
+        </is>
+      </c>
       <c r="G828" t="inlineStr">
         <is>
           <t>3</t>
@@ -22210,22 +22120,26 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
         </is>
       </c>
       <c r="C829" t="inlineStr"/>
       <c r="D829" t="inlineStr">
         <is>
-          <t>4.632%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E829" t="inlineStr"/>
-      <c r="F829" t="inlineStr"/>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G829" t="inlineStr">
         <is>
           <t>3</t>
@@ -22235,141 +22149,145 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
         </is>
       </c>
       <c r="C830" t="inlineStr"/>
       <c r="D830" t="inlineStr">
         <is>
-          <t>$-129B</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E830" t="inlineStr"/>
       <c r="F830" t="inlineStr">
         <is>
-          <t>$-90.0B</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>PPI YoYFEB</t>
+        </is>
+      </c>
       <c r="C831" t="inlineStr"/>
-      <c r="D831" t="inlineStr"/>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E831" t="inlineStr"/>
-      <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr"/>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>PPI MoMFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C832" t="inlineStr"/>
       <c r="D832" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-80Bcf</t>
         </is>
       </c>
       <c r="E832" t="inlineStr"/>
-      <c r="F832" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F832" t="inlineStr"/>
       <c r="G832" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Core PPI MoMFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C833" t="inlineStr"/>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D833" t="inlineStr"/>
       <c r="E833" t="inlineStr"/>
-      <c r="F833" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F833" t="inlineStr"/>
       <c r="G833" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C834" t="inlineStr"/>
-      <c r="D834" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
+      <c r="D834" t="inlineStr"/>
       <c r="E834" t="inlineStr"/>
       <c r="F834" t="inlineStr"/>
       <c r="G834" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C835" t="inlineStr"/>
-      <c r="D835" t="inlineStr"/>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>5.79%</t>
+        </is>
+      </c>
       <c r="E835" t="inlineStr"/>
       <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr">
@@ -22381,26 +22299,22 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Core PPI YoYFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C836" t="inlineStr"/>
       <c r="D836" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>6.63%</t>
         </is>
       </c>
       <c r="E836" t="inlineStr"/>
-      <c r="F836" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr">
         <is>
           <t>3</t>
@@ -22410,16 +22324,20 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C837" t="inlineStr"/>
-      <c r="D837" t="inlineStr"/>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>4.748%</t>
+        </is>
+      </c>
       <c r="E837" t="inlineStr"/>
       <c r="F837" t="inlineStr"/>
       <c r="G837" t="inlineStr">
@@ -22431,26 +22349,18 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>PPIFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C838" t="inlineStr"/>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
+      <c r="D838" t="inlineStr"/>
       <c r="E838" t="inlineStr"/>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
+      <c r="F838" t="inlineStr"/>
       <c r="G838" t="inlineStr">
         <is>
           <t>3</t>
@@ -22460,70 +22370,54 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr"/>
       <c r="C839" t="inlineStr"/>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D839" t="inlineStr"/>
       <c r="E839" t="inlineStr"/>
-      <c r="F839" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C840" t="inlineStr"/>
       <c r="D840" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
       <c r="F840" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>PPI YoYFEB</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C841" t="inlineStr"/>
@@ -22535,7 +22429,7 @@
       <c r="E841" t="inlineStr"/>
       <c r="F841" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
@@ -22547,22 +22441,26 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
-          <t>-80Bcf</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr"/>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="G842" t="inlineStr">
         <is>
           <t>3</t>
@@ -22572,18 +22470,26 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr"/>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
       <c r="E843" t="inlineStr"/>
-      <c r="F843" t="inlineStr"/>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="G843" t="inlineStr">
         <is>
           <t>3</t>
@@ -22593,18 +22499,26 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C844" t="inlineStr"/>
-      <c r="D844" t="inlineStr"/>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="E844" t="inlineStr"/>
-      <c r="F844" t="inlineStr"/>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G844" t="inlineStr">
         <is>
           <t>3</t>
@@ -22614,20 +22528,16 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAR/13</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr">
-        <is>
-          <t>5.79%</t>
-        </is>
-      </c>
+      <c r="D845" t="inlineStr"/>
       <c r="E845" t="inlineStr"/>
       <c r="F845" t="inlineStr"/>
       <c r="G845" t="inlineStr">
@@ -22639,20 +22549,16 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAR/13</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr">
-        <is>
-          <t>6.63%</t>
-        </is>
-      </c>
+      <c r="D846" t="inlineStr"/>
       <c r="E846" t="inlineStr"/>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr">
@@ -22664,274 +22570,28 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B847" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr"/>
       <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
+      <c r="D847" t="inlineStr"/>
       <c r="E847" t="inlineStr"/>
       <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G847" t="inlineStr"/>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
+          <t>Monday March 17 2025</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr"/>
       <c r="C848" t="inlineStr"/>
       <c r="D848" t="inlineStr"/>
       <c r="E848" t="inlineStr"/>
       <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B849" t="inlineStr"/>
-      <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr"/>
-      <c r="E849" t="inlineStr"/>
-      <c r="F849" t="inlineStr"/>
-      <c r="G849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E851" t="inlineStr"/>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E852" t="inlineStr"/>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B853" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B856" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr"/>
-      <c r="E856" t="inlineStr"/>
-      <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B857" t="inlineStr"/>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
-    </row>
-    <row r="858">
-      <c r="A858" t="inlineStr">
-        <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B858" t="inlineStr"/>
-      <c r="C858" t="inlineStr"/>
-      <c r="D858" t="inlineStr"/>
-      <c r="E858" t="inlineStr"/>
-      <c r="F858" t="inlineStr"/>
-      <c r="G858" t="inlineStr"/>
+      <c r="G848" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
@@ -21661,7 +21661,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -21686,7 +21686,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G878"/>
+  <dimension ref="A1:G882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21738,7 +21738,11 @@
           <t>102.8</t>
         </is>
       </c>
-      <c r="E811" t="inlineStr"/>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
       <c r="F811" t="inlineStr">
         <is>
           <t>102</t>
@@ -21836,16 +21840,20 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>6-Week Bill Auction</t>
         </is>
       </c>
       <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr"/>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E815" t="inlineStr"/>
       <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr">
@@ -21857,20 +21865,16 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
+      <c r="D816" t="inlineStr"/>
       <c r="E816" t="inlineStr"/>
       <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr">
@@ -21882,65 +21886,65 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
+          <t>3-Year Note Auction</t>
         </is>
       </c>
       <c r="C817" t="inlineStr"/>
       <c r="D817" t="inlineStr">
         <is>
-          <t>-1.455M</t>
+          <t>4.300%</t>
         </is>
       </c>
       <c r="E817" t="inlineStr"/>
       <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeMAR/07</t>
+        </is>
+      </c>
       <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr"/>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>-1.455M</t>
+        </is>
+      </c>
       <c r="E818" t="inlineStr"/>
       <c r="F818" t="inlineStr"/>
-      <c r="G818" t="inlineStr"/>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
+          <t>Wednesday March 12 2025</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr"/>
       <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
+      <c r="D819" t="inlineStr"/>
       <c r="E819" t="inlineStr"/>
       <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
@@ -21950,20 +21954,20 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
+          <t>MBA 30-Year Mortgage RateMAR/07</t>
         </is>
       </c>
       <c r="C820" t="inlineStr"/>
       <c r="D820" t="inlineStr">
         <is>
-          <t>20.4%</t>
+          <t>6.73%</t>
         </is>
       </c>
       <c r="E820" t="inlineStr"/>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21975,13 +21979,13 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
+          <t>MBA Mortgage ApplicationsMAR/07</t>
         </is>
       </c>
       <c r="C821" t="inlineStr"/>
       <c r="D821" t="inlineStr">
         <is>
-          <t>242.2</t>
+          <t>20.4%</t>
         </is>
       </c>
       <c r="E821" t="inlineStr"/>
@@ -22000,13 +22004,13 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
+          <t>MBA Mortgage Market IndexMAR/07</t>
         </is>
       </c>
       <c r="C822" t="inlineStr"/>
       <c r="D822" t="inlineStr">
         <is>
-          <t>784.2</t>
+          <t>242.2</t>
         </is>
       </c>
       <c r="E822" t="inlineStr"/>
@@ -22025,13 +22029,13 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAR/07</t>
+          <t>MBA Mortgage Refinance IndexMAR/07</t>
         </is>
       </c>
       <c r="C823" t="inlineStr"/>
       <c r="D823" t="inlineStr">
         <is>
-          <t>144.5</t>
+          <t>784.2</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
@@ -22045,33 +22049,25 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMFEB</t>
+          <t>MBA Purchase IndexMAR/07</t>
         </is>
       </c>
       <c r="C824" t="inlineStr"/>
       <c r="D824" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E824" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F824" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>144.5</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr"/>
+      <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22083,19 +22079,23 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYFEB</t>
+          <t>Core Inflation Rate MoMFEB</t>
         </is>
       </c>
       <c r="C825" t="inlineStr"/>
       <c r="D825" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E825" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -22112,23 +22112,23 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMFEB</t>
+          <t>Core Inflation Rate YoYFEB</t>
         </is>
       </c>
       <c r="C826" t="inlineStr"/>
       <c r="D826" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="G826" t="inlineStr">
@@ -22145,19 +22145,23 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYFEB</t>
+          <t>Inflation Rate MoMFEB</t>
         </is>
       </c>
       <c r="C827" t="inlineStr"/>
       <c r="D827" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E827" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
@@ -22174,24 +22178,28 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>CPIFEB</t>
+          <t>Inflation Rate YoYFEB</t>
         </is>
       </c>
       <c r="C828" t="inlineStr"/>
       <c r="D828" t="inlineStr">
         <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E828" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>319.3</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22203,19 +22211,19 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>CPI s.aFEB</t>
+          <t>CPIFEB</t>
         </is>
       </c>
       <c r="C829" t="inlineStr"/>
       <c r="D829" t="inlineStr">
         <is>
-          <t>319.086</t>
+          <t>317.67</t>
         </is>
       </c>
       <c r="E829" t="inlineStr"/>
       <c r="F829" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>319.3</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
@@ -22227,22 +22235,26 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
+          <t>CPI s.aFEB</t>
         </is>
       </c>
       <c r="C830" t="inlineStr"/>
       <c r="D830" t="inlineStr">
         <is>
-          <t>3.614M</t>
+          <t>319.086</t>
         </is>
       </c>
       <c r="E830" t="inlineStr"/>
-      <c r="F830" t="inlineStr"/>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
       <c r="G830" t="inlineStr">
         <is>
           <t>2</t>
@@ -22257,13 +22269,13 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
+          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C831" t="inlineStr"/>
       <c r="D831" t="inlineStr">
         <is>
-          <t>-1.433M</t>
+          <t>3.614M</t>
         </is>
       </c>
       <c r="E831" t="inlineStr"/>
@@ -22282,20 +22294,20 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
+          <t>EIA Gasoline Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C832" t="inlineStr"/>
       <c r="D832" t="inlineStr">
         <is>
-          <t>-0.054M</t>
+          <t>-1.433M</t>
         </is>
       </c>
       <c r="E832" t="inlineStr"/>
       <c r="F832" t="inlineStr"/>
       <c r="G832" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22307,13 +22319,13 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
+          <t>EIA Crude Oil Imports ChangeMAR/07</t>
         </is>
       </c>
       <c r="C833" t="inlineStr"/>
       <c r="D833" t="inlineStr">
         <is>
-          <t>1.124M</t>
+          <t>-0.054M</t>
         </is>
       </c>
       <c r="E833" t="inlineStr"/>
@@ -22332,13 +22344,13 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C834" t="inlineStr"/>
       <c r="D834" t="inlineStr">
         <is>
-          <t>-0.587M</t>
+          <t>1.124M</t>
         </is>
       </c>
       <c r="E834" t="inlineStr"/>
@@ -22357,13 +22369,13 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
         </is>
       </c>
       <c r="C835" t="inlineStr"/>
       <c r="D835" t="inlineStr">
         <is>
-          <t>-1.318M</t>
+          <t>-0.587M</t>
         </is>
       </c>
       <c r="E835" t="inlineStr"/>
@@ -22382,13 +22394,13 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
+          <t>EIA Distillate Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C836" t="inlineStr"/>
       <c r="D836" t="inlineStr">
         <is>
-          <t>0.464M</t>
+          <t>-1.318M</t>
         </is>
       </c>
       <c r="E836" t="inlineStr"/>
@@ -22407,13 +22419,13 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
+          <t>EIA Gasoline Production ChangeMAR/07</t>
         </is>
       </c>
       <c r="C837" t="inlineStr"/>
       <c r="D837" t="inlineStr">
         <is>
-          <t>-0.067M</t>
+          <t>0.464M</t>
         </is>
       </c>
       <c r="E837" t="inlineStr"/>
@@ -22432,13 +22444,13 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C838" t="inlineStr"/>
       <c r="D838" t="inlineStr">
         <is>
-          <t>-0.346M</t>
+          <t>-0.067M</t>
         </is>
       </c>
       <c r="E838" t="inlineStr"/>
@@ -22452,18 +22464,18 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
         </is>
       </c>
       <c r="C839" t="inlineStr"/>
       <c r="D839" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>-0.346M</t>
         </is>
       </c>
       <c r="E839" t="inlineStr"/>
@@ -22477,18 +22489,18 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C840" t="inlineStr"/>
       <c r="D840" t="inlineStr">
         <is>
-          <t>4.632%</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -22502,77 +22514,69 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementFEB</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C841" t="inlineStr"/>
       <c r="D841" t="inlineStr">
         <is>
-          <t>$-129B</t>
+          <t>4.632%</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
-      <c r="F841" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
+      <c r="F841" t="inlineStr"/>
       <c r="G841" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementFEB</t>
+        </is>
+      </c>
       <c r="C842" t="inlineStr"/>
-      <c r="D842" t="inlineStr"/>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>$-129B</t>
+        </is>
+      </c>
       <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr"/>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>$-90.0B</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
+          <t>Thursday March 13 2025</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr"/>
       <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E843" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F843" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D843" t="inlineStr"/>
+      <c r="E843" t="inlineStr"/>
+      <c r="F843" t="inlineStr"/>
+      <c r="G843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
@@ -22582,28 +22586,28 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Core PPI MoMFEB</t>
+          <t>PPI MoMFEB</t>
         </is>
       </c>
       <c r="C844" t="inlineStr"/>
       <c r="D844" t="inlineStr">
         <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="E844" t="inlineStr">
+      <c r="F844" t="inlineStr">
         <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F844" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="G844" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22615,19 +22619,23 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
+          <t>Core PPI MoMFEB</t>
         </is>
       </c>
       <c r="C845" t="inlineStr"/>
       <c r="D845" t="inlineStr">
         <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E845" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>230.0K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
@@ -22644,24 +22652,28 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
+          <t>Initial Jobless ClaimsMAR/08</t>
         </is>
       </c>
       <c r="C846" t="inlineStr"/>
       <c r="D846" t="inlineStr">
         <is>
-          <t>1897K</t>
-        </is>
-      </c>
-      <c r="E846" t="inlineStr"/>
+          <t>221K</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>225K</t>
+        </is>
+      </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>1910.0K</t>
+          <t>230.0K</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22673,19 +22685,19 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Core PPI YoYFEB</t>
+          <t>Continuing Jobless ClaimsMAR/01</t>
         </is>
       </c>
       <c r="C847" t="inlineStr"/>
       <c r="D847" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>1897K</t>
         </is>
       </c>
       <c r="E847" t="inlineStr"/>
       <c r="F847" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1910.0K</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -22702,19 +22714,19 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
+          <t>Core PPI YoYFEB</t>
         </is>
       </c>
       <c r="C848" t="inlineStr"/>
       <c r="D848" t="inlineStr">
         <is>
-          <t>224.25K</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E848" t="inlineStr"/>
       <c r="F848" t="inlineStr">
         <is>
-          <t>228.0K</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -22731,19 +22743,19 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>PPIFEB</t>
+          <t>Jobless Claims 4-week AverageMAR/08</t>
         </is>
       </c>
       <c r="C849" t="inlineStr"/>
       <c r="D849" t="inlineStr">
         <is>
-          <t>147.716</t>
+          <t>224.25K</t>
         </is>
       </c>
       <c r="E849" t="inlineStr"/>
       <c r="F849" t="inlineStr">
         <is>
-          <t>148.1</t>
+          <t>228.0K</t>
         </is>
       </c>
       <c r="G849" t="inlineStr">
@@ -22760,19 +22772,19 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
+          <t>PPIFEB</t>
         </is>
       </c>
       <c r="C850" t="inlineStr"/>
       <c r="D850" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>147.716</t>
         </is>
       </c>
       <c r="E850" t="inlineStr"/>
       <c r="F850" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>148.1</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
@@ -22789,19 +22801,19 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
         </is>
       </c>
       <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E851" t="inlineStr"/>
       <c r="F851" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -22818,13 +22830,13 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>PPI YoYFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
         </is>
       </c>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E852" t="inlineStr"/>
@@ -22842,22 +22854,26 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr">
         <is>
-          <t>-80Bcf</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr"/>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G853" t="inlineStr">
         <is>
           <t>3</t>
@@ -22867,18 +22883,18 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C854" t="inlineStr"/>
       <c r="D854" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>-80Bcf</t>
         </is>
       </c>
       <c r="E854" t="inlineStr"/>
@@ -22897,13 +22913,13 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C855" t="inlineStr"/>
       <c r="D855" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E855" t="inlineStr"/>
@@ -22917,18 +22933,18 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAR/13</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr">
         <is>
-          <t>5.79%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E856" t="inlineStr"/>
@@ -22947,13 +22963,13 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAR/13</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
         <is>
-          <t>6.63%</t>
+          <t>5.79%</t>
         </is>
       </c>
       <c r="E857" t="inlineStr"/>
@@ -22967,18 +22983,18 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C858" t="inlineStr"/>
       <c r="D858" t="inlineStr">
         <is>
-          <t>4.748%</t>
+          <t>6.63%</t>
         </is>
       </c>
       <c r="E858" t="inlineStr"/>
@@ -22992,18 +23008,18 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/12</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>4.748%</t>
         </is>
       </c>
       <c r="E859" t="inlineStr"/>
@@ -23017,44 +23033,40 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B860" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetMAR/12</t>
+        </is>
+      </c>
       <c r="C860" t="inlineStr"/>
-      <c r="D860" t="inlineStr"/>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>$6.76T</t>
+        </is>
+      </c>
       <c r="E860" t="inlineStr"/>
       <c r="F860" t="inlineStr"/>
-      <c r="G860" t="inlineStr"/>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B861" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr"/>
       <c r="C861" t="inlineStr"/>
-      <c r="D861" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
+      <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr"/>
-      <c r="F861" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G861" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
@@ -23064,24 +23076,28 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C862" t="inlineStr"/>
       <c r="D862" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E862" t="inlineStr"/>
+          <t>64.7</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23093,19 +23109,19 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C863" t="inlineStr"/>
       <c r="D863" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E863" t="inlineStr"/>
       <c r="F863" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
@@ -23122,19 +23138,19 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAR</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C864" t="inlineStr"/>
       <c r="D864" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E864" t="inlineStr"/>
       <c r="F864" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -23151,19 +23167,19 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C865" t="inlineStr"/>
       <c r="D865" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>65.7</t>
         </is>
       </c>
       <c r="E865" t="inlineStr"/>
       <c r="F865" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
@@ -23175,18 +23191,26 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C866" t="inlineStr"/>
-      <c r="D866" t="inlineStr"/>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="E866" t="inlineStr"/>
-      <c r="F866" t="inlineStr"/>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G866" t="inlineStr">
         <is>
           <t>3</t>
@@ -23201,7 +23225,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C867" t="inlineStr"/>
@@ -23217,20 +23241,28 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B868" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
+        </is>
+      </c>
       <c r="C868" t="inlineStr"/>
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr"/>
       <c r="F868" t="inlineStr"/>
-      <c r="G868" t="inlineStr"/>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Monday March 17 2025</t>
+          <t>Sunday March 16 2025</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -23243,31 +23275,15 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B870" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMFEB</t>
-        </is>
-      </c>
+          <t>Monday March 17 2025</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr"/>
       <c r="C870" t="inlineStr"/>
-      <c r="D870" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="D870" t="inlineStr"/>
       <c r="E870" t="inlineStr"/>
-      <c r="F870" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G870" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -23277,24 +23293,24 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
+          <t>Retail Sales MoMFEB</t>
         </is>
       </c>
       <c r="C871" t="inlineStr"/>
       <c r="D871" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E871" t="inlineStr"/>
       <c r="F871" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23306,17 +23322,21 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMFEB</t>
+          <t>NY Empire State Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C872" t="inlineStr"/>
       <c r="D872" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E872" t="inlineStr"/>
-      <c r="F872" t="inlineStr"/>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="G872" t="inlineStr">
         <is>
           <t>2</t>
@@ -23331,21 +23351,17 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
+          <t>Retail Sales Control Group MoMFEB</t>
         </is>
       </c>
       <c r="C873" t="inlineStr"/>
       <c r="D873" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="E873" t="inlineStr"/>
-      <c r="F873" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr">
         <is>
           <t>2</t>
@@ -23360,13 +23376,13 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
+          <t>Retail Sales Ex Autos MoMFEB</t>
         </is>
       </c>
       <c r="C874" t="inlineStr"/>
       <c r="D874" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E874" t="inlineStr"/>
@@ -23377,7 +23393,7 @@
       </c>
       <c r="G874" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23389,19 +23405,19 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>Retail Sales YoYFEB</t>
+          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
         </is>
       </c>
       <c r="C875" t="inlineStr"/>
       <c r="D875" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E875" t="inlineStr"/>
       <c r="F875" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -23413,29 +23429,29 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Business Inventories MoMJAN</t>
+          <t>Retail Sales YoYFEB</t>
         </is>
       </c>
       <c r="C876" t="inlineStr"/>
       <c r="D876" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="E876" t="inlineStr"/>
       <c r="F876" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23447,19 +23463,19 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAR</t>
+          <t>Business Inventories MoMJAN</t>
         </is>
       </c>
       <c r="C877" t="inlineStr"/>
       <c r="D877" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -23476,18 +23492,110 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
+          <t>NAHB Housing Market IndexMAR</t>
         </is>
       </c>
       <c r="C878" t="inlineStr"/>
-      <c r="D878" t="inlineStr"/>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="E878" t="inlineStr"/>
       <c r="F878" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoMJAN</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr"/>
+      <c r="D879" t="inlineStr"/>
+      <c r="E879" t="inlineStr"/>
+      <c r="F879" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G878" t="inlineStr">
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr"/>
+      <c r="D880" t="inlineStr"/>
+      <c r="E880" t="inlineStr"/>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr"/>
+      <c r="D881" t="inlineStr"/>
+      <c r="E881" t="inlineStr"/>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>NOPA Crush Report</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr"/>
+      <c r="D882" t="inlineStr"/>
+      <c r="E882" t="inlineStr"/>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
@@ -21518,10 +21518,14 @@
           <t>Baker Hughes Oil Rig CountMAR/07</t>
         </is>
       </c>
-      <c r="C801" t="inlineStr"/>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>486</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
@@ -21543,7 +21547,11 @@
           <t>Baker Hughes Total Rigs CountMAR/07</t>
         </is>
       </c>
-      <c r="C802" t="inlineStr"/>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
       <c r="D802" t="inlineStr">
         <is>
           <t>593</t>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
@@ -23237,7 +23237,11 @@
         </is>
       </c>
       <c r="C867" t="inlineStr"/>
-      <c r="D867" t="inlineStr"/>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
       <c r="E867" t="inlineStr"/>
       <c r="F867" t="inlineStr"/>
       <c r="G867" t="inlineStr">
@@ -23258,7 +23262,11 @@
         </is>
       </c>
       <c r="C868" t="inlineStr"/>
-      <c r="D868" t="inlineStr"/>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
       <c r="E868" t="inlineStr"/>
       <c r="F868" t="inlineStr"/>
       <c r="G868" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-17.xlsx
@@ -21576,10 +21576,14 @@
           <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
-      <c r="C803" t="inlineStr"/>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>$18.08B</t>
+        </is>
+      </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>$40.85B</t>
+          <t>$37.05B</t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
